--- a/data/georgia_census/kakheti/yvareli/education_graduates.xlsx
+++ b/data/georgia_census/kakheti/yvareli/education_graduates.xlsx
@@ -1853,13 +1853,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BE59E5F-B74C-48B8-B9FF-0D7F94F9BD07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B336F64-AC22-4BD5-B74E-00659B8A3336}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0E6ED0-E8F7-46E6-B36E-7C0D7AD0D0DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B80A686-58DE-4029-ACD5-131EBDCF0F1C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A34280F-54A6-4901-B08E-B9BCC7B2A25E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2751F020-7EB2-469C-A01F-6D693E1B9EDF}"/>
 </file>